--- a/PageObjectModel/src/test/resources/TestManager.xlsx
+++ b/PageObjectModel/src/test/resources/TestManager.xlsx
@@ -39,10 +39,10 @@
     <t>MobilePageTest</t>
   </si>
   <si>
+    <t>SearchItemTest</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>SearchItemTest</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -455,12 +455,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
